--- a/AUTOSAR Watchdog Stack Exercise.xlsx
+++ b/AUTOSAR Watchdog Stack Exercise.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>Trainee Name</t>
   </si>
@@ -638,7 +638,7 @@
   <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -712,6 +712,10 @@
         <v>49</v>
       </c>
       <c r="F12" s="12"/>
+      <c r="H12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
@@ -720,6 +724,10 @@
       <c r="F13" s="2">
         <v>4</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
@@ -728,6 +736,12 @@
       <c r="F14" s="2">
         <v>1</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
@@ -736,6 +750,10 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
@@ -744,6 +762,10 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
@@ -787,7 +809,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A2:A3"/>
@@ -804,7 +827,7 @@
   <dimension ref="D4:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="D17" sqref="D17:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
